--- a/Miscellaneous/GALotSelection.xlsx
+++ b/Miscellaneous/GALotSelection.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DownloanNew\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZhangHaihan\Desktop\Solution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A924F74-6200-4714-81C0-B4D83FCE935C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A0E95A-2B53-4029-A310-6820C1B80752}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AECEE74B-5940-472A-9D01-24D25183B911}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="333">
   <si>
     <t>LOT</t>
   </si>
@@ -1071,15 +1071,19 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>sum(xi)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>xi-ci</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>sum(xi)+aDif + bsum(xi-ci)</t>
+    <t>sum(Dif)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>count(dif&gt;0)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum(Dif)+a*count(dif&gt;0)+ b*count(xi-ci &lt;0)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1349,6 +1353,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1367,35 +1378,18 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{505FDCE9-E516-4A50-BCF1-793306036FBB}"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -21225,8 +21219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE847317-F3B7-47B1-A337-90E630C707F1}">
   <dimension ref="A1:Q202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="E94" workbookViewId="0">
+      <selection activeCell="O105" sqref="O105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -21243,47 +21237,47 @@
     <col min="12" max="12" width="21.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.44140625" style="9" customWidth="1"/>
     <col min="14" max="14" width="30.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="41" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19.88671875" style="2" customWidth="1"/>
     <col min="18" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="24"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="25"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
     </row>
     <row r="2" spans="1:17" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="25"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="26"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -21324,7 +21318,7 @@
         <v>322</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -21352,7 +21346,7 @@
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2">
-        <f>COUNTIF(D:D,M4)</f>
+        <f t="shared" ref="L4:L35" si="0">COUNTIF(D:D,M4)</f>
         <v>1</v>
       </c>
       <c r="M4" s="13" t="s">
@@ -21362,7 +21356,7 @@
         <v>48714.285714285717</v>
       </c>
       <c r="O4" s="2">
-        <f>SUMIF(D:D,M4,G:G)</f>
+        <f t="shared" ref="O4:O35" si="1">SUMIF(D:D,M4,G:G)</f>
         <v>4704</v>
       </c>
       <c r="P4" s="12">
@@ -21370,7 +21364,7 @@
         <v>44010.285714285717</v>
       </c>
       <c r="Q4" s="2">
-        <f>O4-L4</f>
+        <f t="shared" ref="Q4:Q35" si="2">O4-L4</f>
         <v>4703</v>
       </c>
     </row>
@@ -21394,12 +21388,12 @@
         <v>1</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" ref="G5:G68" si="0">F5*E5</f>
+        <f t="shared" ref="G5:G68" si="3">F5*E5</f>
         <v>13227</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2">
-        <f>COUNTIF(D:D,M5)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="M5" s="7" t="s">
@@ -21409,15 +21403,15 @@
         <v>1071.4285714285713</v>
       </c>
       <c r="O5" s="2">
-        <f>SUMIF(D:D,M5,G:G)</f>
+        <f t="shared" si="1"/>
         <v>13227</v>
       </c>
       <c r="P5" s="12">
-        <f t="shared" ref="P5:P68" si="1">N5-O5</f>
+        <f t="shared" ref="P5:P68" si="4">N5-O5</f>
         <v>-12155.571428571429</v>
       </c>
       <c r="Q5" s="2">
-        <f>O5-L5</f>
+        <f t="shared" si="2"/>
         <v>13226</v>
       </c>
     </row>
@@ -21441,12 +21435,12 @@
         <v>1</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8617</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2">
-        <f>COUNTIF(D:D,M6)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="M6" s="7" t="s">
@@ -21456,15 +21450,15 @@
         <v>19935.571428571428</v>
       </c>
       <c r="O6" s="2">
-        <f>SUMIF(D:D,M6,G:G)</f>
+        <f t="shared" si="1"/>
         <v>17509</v>
       </c>
       <c r="P6" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2426.5714285714275</v>
       </c>
       <c r="Q6" s="2">
-        <f>O6-L6</f>
+        <f t="shared" si="2"/>
         <v>17507</v>
       </c>
     </row>
@@ -21488,12 +21482,12 @@
         <v>1</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8892</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2">
-        <f>COUNTIF(D:D,M7)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="M7" s="7" t="s">
@@ -21503,15 +21497,15 @@
         <v>9070.7142857142862</v>
       </c>
       <c r="O7" s="2">
-        <f>SUMIF(D:D,M7,G:G)</f>
+        <f t="shared" si="1"/>
         <v>7699</v>
       </c>
       <c r="P7" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1371.7142857142862</v>
       </c>
       <c r="Q7" s="2">
-        <f>O7-L7</f>
+        <f t="shared" si="2"/>
         <v>7698</v>
       </c>
     </row>
@@ -21535,12 +21529,12 @@
         <v>1</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7699</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2">
-        <f>COUNTIF(D:D,M8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M8" s="7" t="s">
@@ -21550,15 +21544,15 @@
         <v>3928.5714285714284</v>
       </c>
       <c r="O8" s="2">
-        <f>SUMIF(D:D,M8,G:G)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P8" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3928.5714285714284</v>
       </c>
       <c r="Q8" s="2">
-        <f>O8-L8</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -21582,12 +21576,12 @@
         <v>1</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4706</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2">
-        <f>COUNTIF(D:D,M9)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="M9" s="7" t="s">
@@ -21597,15 +21591,15 @@
         <v>63214.285714285717</v>
       </c>
       <c r="O9" s="2">
-        <f>SUMIF(D:D,M9,G:G)</f>
+        <f t="shared" si="1"/>
         <v>33690</v>
       </c>
       <c r="P9" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>29524.285714285717</v>
       </c>
       <c r="Q9" s="2">
-        <f>O9-L9</f>
+        <f t="shared" si="2"/>
         <v>33687</v>
       </c>
     </row>
@@ -21629,12 +21623,12 @@
         <v>1</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>11455</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2">
-        <f>COUNTIF(D:D,M10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M10" s="7" t="s">
@@ -21644,15 +21638,15 @@
         <v>24142.857142857141</v>
       </c>
       <c r="O10" s="2">
-        <f>SUMIF(D:D,M10,G:G)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P10" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>24142.857142857141</v>
       </c>
       <c r="Q10" s="2">
-        <f>O10-L10</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -21676,12 +21670,12 @@
         <v>1</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>17529</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2">
-        <f>COUNTIF(D:D,M11)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M11" s="7" t="s">
@@ -21691,15 +21685,15 @@
         <v>17857.142857142859</v>
       </c>
       <c r="O11" s="2">
-        <f>SUMIF(D:D,M11,G:G)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P11" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>17857.142857142859</v>
       </c>
       <c r="Q11" s="2">
-        <f>O11-L11</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -21723,12 +21717,12 @@
         <v>0</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2">
-        <f>COUNTIF(D:D,M12)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="M12" s="7" t="s">
@@ -21738,15 +21732,15 @@
         <v>11128.571428571429</v>
       </c>
       <c r="O12" s="2">
-        <f>SUMIF(D:D,M12,G:G)</f>
+        <f t="shared" si="1"/>
         <v>10227</v>
       </c>
       <c r="P12" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>901.57142857142935</v>
       </c>
       <c r="Q12" s="2">
-        <f>O12-L12</f>
+        <f t="shared" si="2"/>
         <v>10221</v>
       </c>
     </row>
@@ -21770,12 +21764,12 @@
         <v>1</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4267</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2">
-        <f>COUNTIF(D:D,M13)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="M13" s="7" t="s">
@@ -21785,15 +21779,15 @@
         <v>33928.571428571428</v>
       </c>
       <c r="O13" s="2">
-        <f>SUMIF(D:D,M13,G:G)</f>
+        <f t="shared" si="1"/>
         <v>6535</v>
       </c>
       <c r="P13" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>27393.571428571428</v>
       </c>
       <c r="Q13" s="2">
-        <f>O13-L13</f>
+        <f t="shared" si="2"/>
         <v>6534</v>
       </c>
     </row>
@@ -21817,12 +21811,12 @@
         <v>0</v>
       </c>
       <c r="G14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2">
-        <f>COUNTIF(D:D,M14)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="M14" s="7" t="s">
@@ -21832,15 +21826,15 @@
         <v>13928.571428571429</v>
       </c>
       <c r="O14" s="2">
-        <f>SUMIF(D:D,M14,G:G)</f>
+        <f t="shared" si="1"/>
         <v>11789</v>
       </c>
       <c r="P14" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2139.5714285714294</v>
       </c>
       <c r="Q14" s="2">
-        <f>O14-L14</f>
+        <f t="shared" si="2"/>
         <v>11785</v>
       </c>
     </row>
@@ -21864,12 +21858,12 @@
         <v>0</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2">
-        <f>COUNTIF(D:D,M15)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M15" s="7" t="s">
@@ -21879,15 +21873,15 @@
         <v>12000</v>
       </c>
       <c r="O15" s="2">
-        <f>SUMIF(D:D,M15,G:G)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P15" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>12000</v>
       </c>
       <c r="Q15" s="2">
-        <f>O15-L15</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -21911,12 +21905,12 @@
         <v>1</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5960</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2">
-        <f>COUNTIF(D:D,M16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M16" s="7" t="s">
@@ -21926,15 +21920,15 @@
         <v>256.85714285714283</v>
       </c>
       <c r="O16" s="2">
-        <f>SUMIF(D:D,M16,G:G)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P16" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>256.85714285714283</v>
       </c>
       <c r="Q16" s="2">
-        <f>O16-L16</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -21958,12 +21952,12 @@
         <v>0</v>
       </c>
       <c r="G17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2">
-        <f>COUNTIF(D:D,M17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M17" s="7" t="s">
@@ -21973,15 +21967,15 @@
         <v>5357.1428571428569</v>
       </c>
       <c r="O17" s="2">
-        <f>SUMIF(D:D,M17,G:G)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P17" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5357.1428571428569</v>
       </c>
       <c r="Q17" s="2">
-        <f>O17-L17</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -22005,12 +21999,12 @@
         <v>1</v>
       </c>
       <c r="G18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6535</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2">
-        <f>COUNTIF(D:D,M18)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="M18" s="7" t="s">
@@ -22020,15 +22014,15 @@
         <v>17500</v>
       </c>
       <c r="O18" s="2">
-        <f>SUMIF(D:D,M18,G:G)</f>
+        <f t="shared" si="1"/>
         <v>10707</v>
       </c>
       <c r="P18" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6793</v>
       </c>
       <c r="Q18" s="2">
-        <f>O18-L18</f>
+        <f t="shared" si="2"/>
         <v>10705</v>
       </c>
     </row>
@@ -22052,12 +22046,12 @@
         <v>0</v>
       </c>
       <c r="G19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2">
-        <f>COUNTIF(D:D,M19)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="M19" s="14" t="s">
@@ -22067,15 +22061,15 @@
         <v>2857.1428571428573</v>
       </c>
       <c r="O19" s="2">
-        <f>SUMIF(D:D,M19,G:G)</f>
+        <f t="shared" si="1"/>
         <v>24058</v>
       </c>
       <c r="P19" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-21200.857142857141</v>
       </c>
       <c r="Q19" s="2">
-        <f>O19-L19</f>
+        <f t="shared" si="2"/>
         <v>24055</v>
       </c>
     </row>
@@ -22099,12 +22093,12 @@
         <v>0</v>
       </c>
       <c r="G20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2">
-        <f>COUNTIF(D:D,M20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M20" s="7" t="s">
@@ -22114,15 +22108,15 @@
         <v>6857.1428571428569</v>
       </c>
       <c r="O20" s="2">
-        <f>SUMIF(D:D,M20,G:G)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P20" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6857.1428571428569</v>
       </c>
       <c r="Q20" s="2">
-        <f>O20-L20</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -22146,12 +22140,12 @@
         <v>1</v>
       </c>
       <c r="G21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5816</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2">
-        <f>COUNTIF(D:D,M21)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M21" s="7" t="s">
@@ -22161,15 +22155,15 @@
         <v>7500</v>
       </c>
       <c r="O21" s="2">
-        <f>SUMIF(D:D,M21,G:G)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P21" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7500</v>
       </c>
       <c r="Q21" s="2">
-        <f>O21-L21</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -22193,12 +22187,12 @@
         <v>1</v>
       </c>
       <c r="G22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5973</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2">
-        <f>COUNTIF(D:D,M22)</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="M22" s="7" t="s">
@@ -22208,15 +22202,15 @@
         <v>190428.57142857142</v>
       </c>
       <c r="O22" s="2">
-        <f>SUMIF(D:D,M22,G:G)</f>
+        <f t="shared" si="1"/>
         <v>176875</v>
       </c>
       <c r="P22" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>13553.57142857142</v>
       </c>
       <c r="Q22" s="2">
-        <f>O22-L22</f>
+        <f t="shared" si="2"/>
         <v>176840</v>
       </c>
     </row>
@@ -22240,12 +22234,12 @@
         <v>0</v>
       </c>
       <c r="G23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2">
-        <f>COUNTIF(D:D,M23)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M23" s="7" t="s">
@@ -22255,15 +22249,15 @@
         <v>500</v>
       </c>
       <c r="O23" s="2">
-        <f>SUMIF(D:D,M23,G:G)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P23" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>500</v>
       </c>
       <c r="Q23" s="2">
-        <f>O23-L23</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -22287,12 +22281,12 @@
         <v>1</v>
       </c>
       <c r="G24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>10707</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2">
-        <f>COUNTIF(D:D,M24)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M24" s="7" t="s">
@@ -22302,15 +22296,15 @@
         <v>6672</v>
       </c>
       <c r="O24" s="2">
-        <f>SUMIF(D:D,M24,G:G)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P24" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6672</v>
       </c>
       <c r="Q24" s="2">
-        <f>O24-L24</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -22334,12 +22328,12 @@
         <v>1</v>
       </c>
       <c r="G25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6381</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2">
-        <f>COUNTIF(D:D,M25)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="M25" s="7" t="s">
@@ -22349,15 +22343,15 @@
         <v>15714.285714285714</v>
       </c>
       <c r="O25" s="2">
-        <f>SUMIF(D:D,M25,G:G)</f>
+        <f t="shared" si="1"/>
         <v>11836</v>
       </c>
       <c r="P25" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3878.2857142857138</v>
       </c>
       <c r="Q25" s="2">
-        <f>O25-L25</f>
+        <f t="shared" si="2"/>
         <v>11827</v>
       </c>
     </row>
@@ -22381,12 +22375,12 @@
         <v>1</v>
       </c>
       <c r="G26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8758</v>
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2">
-        <f>COUNTIF(D:D,M26)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="M26" s="7" t="s">
@@ -22396,15 +22390,15 @@
         <v>86071.428571428565</v>
       </c>
       <c r="O26" s="2">
-        <f>SUMIF(D:D,M26,G:G)</f>
+        <f t="shared" si="1"/>
         <v>62448</v>
       </c>
       <c r="P26" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>23623.428571428565</v>
       </c>
       <c r="Q26" s="2">
-        <f>O26-L26</f>
+        <f t="shared" si="2"/>
         <v>62445</v>
       </c>
     </row>
@@ -22428,12 +22422,12 @@
         <v>1</v>
       </c>
       <c r="G27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8919</v>
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="2">
-        <f>COUNTIF(D:D,M27)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M27" s="7" t="s">
@@ -22443,15 +22437,15 @@
         <v>1057.1428571428571</v>
       </c>
       <c r="O27" s="2">
-        <f>SUMIF(D:D,M27,G:G)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P27" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1057.1428571428571</v>
       </c>
       <c r="Q27" s="2">
-        <f>O27-L27</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -22475,12 +22469,12 @@
         <v>0</v>
       </c>
       <c r="G28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2">
-        <f>COUNTIF(D:D,M28)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M28" s="7" t="s">
@@ -22490,15 +22484,15 @@
         <v>18428.571428571428</v>
       </c>
       <c r="O28" s="2">
-        <f>SUMIF(D:D,M28,G:G)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P28" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>18428.571428571428</v>
       </c>
       <c r="Q28" s="2">
-        <f>O28-L28</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -22522,12 +22516,12 @@
         <v>0</v>
       </c>
       <c r="G29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2">
-        <f>COUNTIF(D:D,M29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M29" s="7" t="s">
@@ -22537,15 +22531,15 @@
         <v>14285.714285714286</v>
       </c>
       <c r="O29" s="2">
-        <f>SUMIF(D:D,M29,G:G)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P29" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>14285.714285714286</v>
       </c>
       <c r="Q29" s="2">
-        <f>O29-L29</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -22569,12 +22563,12 @@
         <v>1</v>
       </c>
       <c r="G30" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6134</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2">
-        <f>COUNTIF(D:D,M30)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M30" s="7" t="s">
@@ -22584,15 +22578,15 @@
         <v>1785.7142857142858</v>
       </c>
       <c r="O30" s="2">
-        <f>SUMIF(D:D,M30,G:G)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P30" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1785.7142857142858</v>
       </c>
       <c r="Q30" s="2">
-        <f>O30-L30</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -22616,12 +22610,12 @@
         <v>1</v>
       </c>
       <c r="G31" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6709</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="2">
-        <f>COUNTIF(D:D,M31)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="M31" s="7" t="s">
@@ -22631,15 +22625,15 @@
         <v>40076.714285714283</v>
       </c>
       <c r="O31" s="2">
-        <f>SUMIF(D:D,M31,G:G)</f>
+        <f t="shared" si="1"/>
         <v>11430</v>
       </c>
       <c r="P31" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>28646.714285714283</v>
       </c>
       <c r="Q31" s="2">
-        <f>O31-L31</f>
+        <f t="shared" si="2"/>
         <v>11428</v>
       </c>
     </row>
@@ -22663,12 +22657,12 @@
         <v>1</v>
       </c>
       <c r="G32" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7322</v>
       </c>
       <c r="K32" s="2"/>
       <c r="L32" s="2">
-        <f>COUNTIF(D:D,M32)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M32" s="7" t="s">
@@ -22678,15 +22672,15 @@
         <v>7857.1428571428569</v>
       </c>
       <c r="O32" s="2">
-        <f>SUMIF(D:D,M32,G:G)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P32" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7857.1428571428569</v>
       </c>
       <c r="Q32" s="2">
-        <f>O32-L32</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -22710,12 +22704,12 @@
         <v>0</v>
       </c>
       <c r="G33" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="2">
-        <f>COUNTIF(D:D,M33)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="M33" s="7" t="s">
@@ -22725,15 +22719,15 @@
         <v>15742.857142857143</v>
       </c>
       <c r="O33" s="2">
-        <f>SUMIF(D:D,M33,G:G)</f>
+        <f t="shared" si="1"/>
         <v>12082</v>
       </c>
       <c r="P33" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3660.8571428571431</v>
       </c>
       <c r="Q33" s="2">
-        <f>O33-L33</f>
+        <f t="shared" si="2"/>
         <v>12079</v>
       </c>
     </row>
@@ -22757,12 +22751,12 @@
         <v>1</v>
       </c>
       <c r="G34" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7883</v>
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="2">
-        <f>COUNTIF(D:D,M34)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M34" s="7" t="s">
@@ -22772,15 +22766,15 @@
         <v>3357.1428571428573</v>
       </c>
       <c r="O34" s="2">
-        <f>SUMIF(D:D,M34,G:G)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P34" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3357.1428571428573</v>
       </c>
       <c r="Q34" s="2">
-        <f>O34-L34</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -22804,12 +22798,12 @@
         <v>0</v>
       </c>
       <c r="G35" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K35" s="2"/>
       <c r="L35" s="2">
-        <f>COUNTIF(D:D,M35)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M35" s="7" t="s">
@@ -22819,15 +22813,15 @@
         <v>35000</v>
       </c>
       <c r="O35" s="2">
-        <f>SUMIF(D:D,M35,G:G)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P35" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>35000</v>
       </c>
       <c r="Q35" s="2">
-        <f>O35-L35</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -22851,12 +22845,12 @@
         <v>1</v>
       </c>
       <c r="G36" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8137</v>
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="2">
-        <f>COUNTIF(D:D,M36)</f>
+        <f t="shared" ref="L36:L67" si="5">COUNTIF(D:D,M36)</f>
         <v>0</v>
       </c>
       <c r="M36" s="7" t="s">
@@ -22866,15 +22860,15 @@
         <v>1214.2857142857142</v>
       </c>
       <c r="O36" s="2">
-        <f>SUMIF(D:D,M36,G:G)</f>
+        <f t="shared" ref="O36:O67" si="6">SUMIF(D:D,M36,G:G)</f>
         <v>0</v>
       </c>
       <c r="P36" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1214.2857142857142</v>
       </c>
       <c r="Q36" s="2">
-        <f>O36-L36</f>
+        <f t="shared" ref="Q36:Q67" si="7">O36-L36</f>
         <v>0</v>
       </c>
     </row>
@@ -22898,12 +22892,12 @@
         <v>1</v>
       </c>
       <c r="G37" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8159</v>
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="2">
-        <f>COUNTIF(D:D,M37)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M37" s="7" t="s">
@@ -22913,15 +22907,15 @@
         <v>2428.5714285714284</v>
       </c>
       <c r="O37" s="2">
-        <f>SUMIF(D:D,M37,G:G)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P37" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2428.5714285714284</v>
       </c>
       <c r="Q37" s="2">
-        <f>O37-L37</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -22945,12 +22939,12 @@
         <v>1</v>
       </c>
       <c r="G38" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8168</v>
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="2">
-        <f>COUNTIF(D:D,M38)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="M38" s="7" t="s">
@@ -22960,15 +22954,15 @@
         <v>514.28571428571433</v>
       </c>
       <c r="O38" s="2">
-        <f>SUMIF(D:D,M38,G:G)</f>
+        <f t="shared" si="6"/>
         <v>5355</v>
       </c>
       <c r="P38" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-4840.7142857142853</v>
       </c>
       <c r="Q38" s="2">
-        <f>O38-L38</f>
+        <f t="shared" si="7"/>
         <v>5354</v>
       </c>
     </row>
@@ -22992,12 +22986,12 @@
         <v>1</v>
       </c>
       <c r="G39" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8170</v>
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="2">
-        <f>COUNTIF(D:D,M39)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M39" s="7" t="s">
@@ -23007,15 +23001,15 @@
         <v>6928</v>
       </c>
       <c r="O39" s="2">
-        <f>SUMIF(D:D,M39,G:G)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P39" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6928</v>
       </c>
       <c r="Q39" s="2">
-        <f>O39-L39</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -23039,12 +23033,12 @@
         <v>0</v>
       </c>
       <c r="G40" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="2">
-        <f>COUNTIF(D:D,M40)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M40" s="7" t="s">
@@ -23054,15 +23048,15 @@
         <v>2142.8571428571427</v>
       </c>
       <c r="O40" s="2">
-        <f>SUMIF(D:D,M40,G:G)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P40" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2142.8571428571427</v>
       </c>
       <c r="Q40" s="2">
-        <f>O40-L40</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -23086,12 +23080,12 @@
         <v>1</v>
       </c>
       <c r="G41" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8216</v>
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="2">
-        <f>COUNTIF(D:D,M41)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M41" s="7" t="s">
@@ -23101,15 +23095,15 @@
         <v>31214.285714285714</v>
       </c>
       <c r="O41" s="2">
-        <f>SUMIF(D:D,M41,G:G)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P41" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>31214.285714285714</v>
       </c>
       <c r="Q41" s="2">
-        <f>O41-L41</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -23133,12 +23127,12 @@
         <v>1</v>
       </c>
       <c r="G42" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8223</v>
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="2">
-        <f>COUNTIF(D:D,M42)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M42" s="7" t="s">
@@ -23148,15 +23142,15 @@
         <v>60714.285714285717</v>
       </c>
       <c r="O42" s="2">
-        <f>SUMIF(D:D,M42,G:G)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P42" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>60714.285714285717</v>
       </c>
       <c r="Q42" s="2">
-        <f>O42-L42</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -23180,12 +23174,12 @@
         <v>1</v>
       </c>
       <c r="G43" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8233</v>
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="2">
-        <f>COUNTIF(D:D,M43)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="M43" s="7" t="s">
@@ -23195,15 +23189,15 @@
         <v>7857.1428571428569</v>
       </c>
       <c r="O43" s="2">
-        <f>SUMIF(D:D,M43,G:G)</f>
+        <f t="shared" si="6"/>
         <v>4444</v>
       </c>
       <c r="P43" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3413.1428571428569</v>
       </c>
       <c r="Q43" s="2">
-        <f>O43-L43</f>
+        <f t="shared" si="7"/>
         <v>4440</v>
       </c>
     </row>
@@ -23227,12 +23221,12 @@
         <v>0</v>
       </c>
       <c r="G44" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K44" s="2"/>
       <c r="L44" s="2">
-        <f>COUNTIF(D:D,M44)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M44" s="7" t="s">
@@ -23242,15 +23236,15 @@
         <v>2622.8571428571427</v>
       </c>
       <c r="O44" s="2">
-        <f>SUMIF(D:D,M44,G:G)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P44" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2622.8571428571427</v>
       </c>
       <c r="Q44" s="2">
-        <f>O44-L44</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -23274,12 +23268,12 @@
         <v>1</v>
       </c>
       <c r="G45" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8247</v>
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="2">
-        <f>COUNTIF(D:D,M45)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M45" s="7" t="s">
@@ -23289,15 +23283,15 @@
         <v>8571.4285714285706</v>
       </c>
       <c r="O45" s="2">
-        <f>SUMIF(D:D,M45,G:G)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P45" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8571.4285714285706</v>
       </c>
       <c r="Q45" s="2">
-        <f>O45-L45</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -23321,12 +23315,12 @@
         <v>1</v>
       </c>
       <c r="G46" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8258</v>
       </c>
       <c r="K46" s="2"/>
       <c r="L46" s="2">
-        <f>COUNTIF(D:D,M46)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M46" s="7" t="s">
@@ -23336,15 +23330,15 @@
         <v>2142.8571428571427</v>
       </c>
       <c r="O46" s="2">
-        <f>SUMIF(D:D,M46,G:G)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P46" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2142.8571428571427</v>
       </c>
       <c r="Q46" s="2">
-        <f>O46-L46</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -23368,12 +23362,12 @@
         <v>0</v>
       </c>
       <c r="G47" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="2">
-        <f>COUNTIF(D:D,M47)</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="M47" s="7" t="s">
@@ -23383,15 +23377,15 @@
         <v>5014.2857142857147</v>
       </c>
       <c r="O47" s="2">
-        <f>SUMIF(D:D,M47,G:G)</f>
+        <f t="shared" si="6"/>
         <v>4145</v>
       </c>
       <c r="P47" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>869.28571428571468</v>
       </c>
       <c r="Q47" s="2">
-        <f>O47-L47</f>
+        <f t="shared" si="7"/>
         <v>4142</v>
       </c>
     </row>
@@ -23415,12 +23409,12 @@
         <v>1</v>
       </c>
       <c r="G48" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8263</v>
       </c>
       <c r="K48" s="2"/>
       <c r="L48" s="2">
-        <f>COUNTIF(D:D,M48)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="M48" s="7" t="s">
@@ -23430,15 +23424,15 @@
         <v>77142.857142857145</v>
       </c>
       <c r="O48" s="2">
-        <f>SUMIF(D:D,M48,G:G)</f>
+        <f t="shared" si="6"/>
         <v>23131</v>
       </c>
       <c r="P48" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>54011.857142857145</v>
       </c>
       <c r="Q48" s="2">
-        <f>O48-L48</f>
+        <f t="shared" si="7"/>
         <v>23130</v>
       </c>
     </row>
@@ -23462,12 +23456,12 @@
         <v>0</v>
       </c>
       <c r="G49" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="2">
-        <f>COUNTIF(D:D,M49)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M49" s="7" t="s">
@@ -23477,15 +23471,15 @@
         <v>2142.8571428571427</v>
       </c>
       <c r="O49" s="2">
-        <f>SUMIF(D:D,M49,G:G)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P49" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2142.8571428571427</v>
       </c>
       <c r="Q49" s="2">
-        <f>O49-L49</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -23509,12 +23503,12 @@
         <v>0</v>
       </c>
       <c r="G50" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K50" s="2"/>
       <c r="L50" s="2">
-        <f>COUNTIF(D:D,M50)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M50" s="7" t="s">
@@ -23524,15 +23518,15 @@
         <v>91414.428571428565</v>
       </c>
       <c r="O50" s="2">
-        <f>SUMIF(D:D,M50,G:G)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P50" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>91414.428571428565</v>
       </c>
       <c r="Q50" s="2">
-        <f>O50-L50</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -23556,12 +23550,12 @@
         <v>1</v>
       </c>
       <c r="G51" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8272</v>
       </c>
       <c r="K51" s="2"/>
       <c r="L51" s="2">
-        <f>COUNTIF(D:D,M51)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M51" s="7" t="s">
@@ -23571,15 +23565,15 @@
         <v>118214.28571428571</v>
       </c>
       <c r="O51" s="2">
-        <f>SUMIF(D:D,M51,G:G)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P51" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>118214.28571428571</v>
       </c>
       <c r="Q51" s="2">
-        <f>O51-L51</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -23603,12 +23597,12 @@
         <v>1</v>
       </c>
       <c r="G52" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8272</v>
       </c>
       <c r="K52" s="2"/>
       <c r="L52" s="2">
-        <f>COUNTIF(D:D,M52)</f>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="M52" s="7" t="s">
@@ -23618,15 +23612,15 @@
         <v>88285.71428571429</v>
       </c>
       <c r="O52" s="2">
-        <f>SUMIF(D:D,M52,G:G)</f>
+        <f t="shared" si="6"/>
         <v>88210</v>
       </c>
       <c r="P52" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>75.714285714289872</v>
       </c>
       <c r="Q52" s="2">
-        <f>O52-L52</f>
+        <f t="shared" si="7"/>
         <v>88183</v>
       </c>
     </row>
@@ -23650,12 +23644,12 @@
         <v>1</v>
       </c>
       <c r="G53" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8274</v>
       </c>
       <c r="K53" s="2"/>
       <c r="L53" s="2">
-        <f>COUNTIF(D:D,M53)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M53" s="7" t="s">
@@ -23665,15 +23659,15 @@
         <v>10674.285714285714</v>
       </c>
       <c r="O53" s="2">
-        <f>SUMIF(D:D,M53,G:G)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P53" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10674.285714285714</v>
       </c>
       <c r="Q53" s="2">
-        <f>O53-L53</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -23697,12 +23691,12 @@
         <v>0</v>
       </c>
       <c r="G54" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K54" s="2"/>
       <c r="L54" s="2">
-        <f>COUNTIF(D:D,M54)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="M54" s="7" t="s">
@@ -23712,15 +23706,15 @@
         <v>7140</v>
       </c>
       <c r="O54" s="2">
-        <f>SUMIF(D:D,M54,G:G)</f>
+        <f t="shared" si="6"/>
         <v>7139</v>
       </c>
       <c r="P54" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q54" s="2">
-        <f>O54-L54</f>
+        <f t="shared" si="7"/>
         <v>7138</v>
       </c>
     </row>
@@ -23744,12 +23738,12 @@
         <v>0</v>
       </c>
       <c r="G55" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K55" s="2"/>
       <c r="L55" s="2">
-        <f>COUNTIF(D:D,M55)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M55" s="7" t="s">
@@ -23759,15 +23753,15 @@
         <v>4142.8571428571431</v>
       </c>
       <c r="O55" s="2">
-        <f>SUMIF(D:D,M55,G:G)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P55" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4142.8571428571431</v>
       </c>
       <c r="Q55" s="2">
-        <f>O55-L55</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -23791,12 +23785,12 @@
         <v>1</v>
       </c>
       <c r="G56" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8291</v>
       </c>
       <c r="K56" s="2"/>
       <c r="L56" s="2">
-        <f>COUNTIF(D:D,M56)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="M56" s="7" t="s">
@@ -23806,15 +23800,15 @@
         <v>6925.7142857142853</v>
       </c>
       <c r="O56" s="2">
-        <f>SUMIF(D:D,M56,G:G)</f>
+        <f t="shared" si="6"/>
         <v>5574</v>
       </c>
       <c r="P56" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1351.7142857142853</v>
       </c>
       <c r="Q56" s="2">
-        <f>O56-L56</f>
+        <f t="shared" si="7"/>
         <v>5572</v>
       </c>
     </row>
@@ -23838,12 +23832,12 @@
         <v>0</v>
       </c>
       <c r="G57" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K57" s="2"/>
       <c r="L57" s="2">
-        <f>COUNTIF(D:D,M57)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M57" s="7" t="s">
@@ -23853,15 +23847,15 @@
         <v>5714.2857142857147</v>
       </c>
       <c r="O57" s="2">
-        <f>SUMIF(D:D,M57,G:G)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P57" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5714.2857142857147</v>
       </c>
       <c r="Q57" s="2">
-        <f>O57-L57</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -23885,12 +23879,12 @@
         <v>0</v>
       </c>
       <c r="G58" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K58" s="2"/>
       <c r="L58" s="2">
-        <f>COUNTIF(D:D,M58)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M58" s="7" t="s">
@@ -23900,15 +23894,15 @@
         <v>1800</v>
       </c>
       <c r="O58" s="2">
-        <f>SUMIF(D:D,M58,G:G)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P58" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1800</v>
       </c>
       <c r="Q58" s="2">
-        <f>O58-L58</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -23932,12 +23926,12 @@
         <v>1</v>
       </c>
       <c r="G59" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8313</v>
       </c>
       <c r="K59" s="2"/>
       <c r="L59" s="2">
-        <f>COUNTIF(D:D,M59)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M59" s="7" t="s">
@@ -23947,15 +23941,15 @@
         <v>10714.285714285714</v>
       </c>
       <c r="O59" s="2">
-        <f>SUMIF(D:D,M59,G:G)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P59" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10714.285714285714</v>
       </c>
       <c r="Q59" s="2">
-        <f>O59-L59</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -23979,12 +23973,12 @@
         <v>0</v>
       </c>
       <c r="G60" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K60" s="2"/>
       <c r="L60" s="2">
-        <f>COUNTIF(D:D,M60)</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="M60" s="7" t="s">
@@ -23994,15 +23988,15 @@
         <v>45485.714285714283</v>
       </c>
       <c r="O60" s="2">
-        <f>SUMIF(D:D,M60,G:G)</f>
+        <f t="shared" si="6"/>
         <v>16085</v>
       </c>
       <c r="P60" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>29400.714285714283</v>
       </c>
       <c r="Q60" s="2">
-        <f>O60-L60</f>
+        <f t="shared" si="7"/>
         <v>16082</v>
       </c>
     </row>
@@ -24026,12 +24020,12 @@
         <v>1</v>
       </c>
       <c r="G61" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8315</v>
       </c>
       <c r="K61" s="2"/>
       <c r="L61" s="2">
-        <f>COUNTIF(D:D,M61)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M61" s="7" t="s">
@@ -24041,15 +24035,15 @@
         <v>900</v>
       </c>
       <c r="O61" s="2">
-        <f>SUMIF(D:D,M61,G:G)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P61" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>900</v>
       </c>
       <c r="Q61" s="2">
-        <f>O61-L61</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -24073,12 +24067,12 @@
         <v>1</v>
       </c>
       <c r="G62" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8328</v>
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="2">
-        <f>COUNTIF(D:D,M62)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M62" s="7" t="s">
@@ -24088,15 +24082,15 @@
         <v>65000</v>
       </c>
       <c r="O62" s="2">
-        <f>SUMIF(D:D,M62,G:G)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P62" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>65000</v>
       </c>
       <c r="Q62" s="2">
-        <f>O62-L62</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -24120,12 +24114,12 @@
         <v>1</v>
       </c>
       <c r="G63" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8688</v>
       </c>
       <c r="K63" s="2"/>
       <c r="L63" s="2">
-        <f>COUNTIF(D:D,M63)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M63" s="7" t="s">
@@ -24135,15 +24129,15 @@
         <v>3214.2857142857142</v>
       </c>
       <c r="O63" s="2">
-        <f>SUMIF(D:D,M63,G:G)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P63" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3214.2857142857142</v>
       </c>
       <c r="Q63" s="2">
-        <f>O63-L63</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -24167,12 +24161,12 @@
         <v>0</v>
       </c>
       <c r="G64" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K64" s="2"/>
       <c r="L64" s="2">
-        <f>COUNTIF(D:D,M64)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="M64" s="7" t="s">
@@ -24182,15 +24176,15 @@
         <v>12000</v>
       </c>
       <c r="O64" s="2">
-        <f>SUMIF(D:D,M64,G:G)</f>
+        <f t="shared" si="6"/>
         <v>11111</v>
       </c>
       <c r="P64" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>889</v>
       </c>
       <c r="Q64" s="2">
-        <f>O64-L64</f>
+        <f t="shared" si="7"/>
         <v>11103</v>
       </c>
     </row>
@@ -24214,12 +24208,12 @@
         <v>0</v>
       </c>
       <c r="G65" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K65" s="2"/>
       <c r="L65" s="2">
-        <f>COUNTIF(D:D,M65)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="M65" s="7" t="s">
@@ -24229,15 +24223,15 @@
         <v>13571.428571428571</v>
       </c>
       <c r="O65" s="2">
-        <f>SUMIF(D:D,M65,G:G)</f>
+        <f t="shared" si="6"/>
         <v>19991</v>
       </c>
       <c r="P65" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-6419.5714285714294</v>
       </c>
       <c r="Q65" s="2">
-        <f>O65-L65</f>
+        <f t="shared" si="7"/>
         <v>19990</v>
       </c>
     </row>
@@ -24261,12 +24255,12 @@
         <v>0</v>
       </c>
       <c r="G66" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K66" s="2"/>
       <c r="L66" s="2">
-        <f>COUNTIF(D:D,M66)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M66" s="7" t="s">
@@ -24276,15 +24270,15 @@
         <v>3571.4285714285716</v>
       </c>
       <c r="O66" s="2">
-        <f>SUMIF(D:D,M66,G:G)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P66" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3571.4285714285716</v>
       </c>
       <c r="Q66" s="2">
-        <f>O66-L66</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -24308,12 +24302,12 @@
         <v>0</v>
       </c>
       <c r="G67" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K67" s="2"/>
       <c r="L67" s="2">
-        <f>COUNTIF(D:D,M67)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M67" s="7" t="s">
@@ -24323,15 +24317,15 @@
         <v>20193.571428571428</v>
       </c>
       <c r="O67" s="2">
-        <f>SUMIF(D:D,M67,G:G)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P67" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>20193.571428571428</v>
       </c>
       <c r="Q67" s="2">
-        <f>O67-L67</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -24355,12 +24349,12 @@
         <v>1</v>
       </c>
       <c r="G68" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5815</v>
       </c>
       <c r="K68" s="2"/>
       <c r="L68" s="2">
-        <f>COUNTIF(D:D,M68)</f>
+        <f t="shared" ref="L68:L99" si="8">COUNTIF(D:D,M68)</f>
         <v>0</v>
       </c>
       <c r="M68" s="7" t="s">
@@ -24370,15 +24364,15 @@
         <v>357.14285714285717</v>
       </c>
       <c r="O68" s="2">
-        <f>SUMIF(D:D,M68,G:G)</f>
+        <f t="shared" ref="O68:O99" si="9">SUMIF(D:D,M68,G:G)</f>
         <v>0</v>
       </c>
       <c r="P68" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>357.14285714285717</v>
       </c>
       <c r="Q68" s="2">
-        <f>O68-L68</f>
+        <f t="shared" ref="Q68:Q99" si="10">O68-L68</f>
         <v>0</v>
       </c>
     </row>
@@ -24402,12 +24396,12 @@
         <v>1</v>
       </c>
       <c r="G69" s="2">
-        <f t="shared" ref="G69:G132" si="2">F69*E69</f>
+        <f t="shared" ref="G69:G132" si="11">F69*E69</f>
         <v>6021</v>
       </c>
       <c r="K69" s="2"/>
       <c r="L69" s="2">
-        <f>COUNTIF(D:D,M69)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M69" s="7" t="s">
@@ -24417,15 +24411,15 @@
         <v>1714.2857142857142</v>
       </c>
       <c r="O69" s="2">
-        <f>SUMIF(D:D,M69,G:G)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P69" s="12">
-        <f t="shared" ref="P69:P111" si="3">N69-O69</f>
+        <f t="shared" ref="P69:P111" si="12">N69-O69</f>
         <v>1714.2857142857142</v>
       </c>
       <c r="Q69" s="2">
-        <f>O69-L69</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -24449,12 +24443,12 @@
         <v>0</v>
       </c>
       <c r="G70" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="2">
-        <f>COUNTIF(D:D,M70)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="M70" s="7" t="s">
@@ -24464,15 +24458,15 @@
         <v>15000</v>
       </c>
       <c r="O70" s="2">
-        <f>SUMIF(D:D,M70,G:G)</f>
+        <f t="shared" si="9"/>
         <v>14912</v>
       </c>
       <c r="P70" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>88</v>
       </c>
       <c r="Q70" s="2">
-        <f>O70-L70</f>
+        <f t="shared" si="10"/>
         <v>14905</v>
       </c>
     </row>
@@ -24496,12 +24490,12 @@
         <v>0</v>
       </c>
       <c r="G71" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K71" s="2"/>
       <c r="L71" s="2">
-        <f>COUNTIF(D:D,M71)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M71" s="7" t="s">
@@ -24511,15 +24505,15 @@
         <v>12857.142857142857</v>
       </c>
       <c r="O71" s="2">
-        <f>SUMIF(D:D,M71,G:G)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P71" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>12857.142857142857</v>
       </c>
       <c r="Q71" s="2">
-        <f>O71-L71</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -24543,12 +24537,12 @@
         <v>0</v>
       </c>
       <c r="G72" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K72" s="2"/>
       <c r="L72" s="2">
-        <f>COUNTIF(D:D,M72)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M72" s="7" t="s">
@@ -24558,15 +24552,15 @@
         <v>2285.7142857142858</v>
       </c>
       <c r="O72" s="2">
-        <f>SUMIF(D:D,M72,G:G)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P72" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>2285.7142857142858</v>
       </c>
       <c r="Q72" s="2">
-        <f>O72-L72</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -24590,12 +24584,12 @@
         <v>0</v>
       </c>
       <c r="G73" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K73" s="2"/>
       <c r="L73" s="2">
-        <f>COUNTIF(D:D,M73)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M73" s="7" t="s">
@@ -24605,15 +24599,15 @@
         <v>20714.285714285714</v>
       </c>
       <c r="O73" s="2">
-        <f>SUMIF(D:D,M73,G:G)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P73" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>20714.285714285714</v>
       </c>
       <c r="Q73" s="2">
-        <f>O73-L73</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -24637,12 +24631,12 @@
         <v>1</v>
       </c>
       <c r="G74" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>62448</v>
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="2">
-        <f>COUNTIF(D:D,M74)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M74" s="7" t="s">
@@ -24652,15 +24646,15 @@
         <v>1266.5714285714287</v>
       </c>
       <c r="O74" s="2">
-        <f>SUMIF(D:D,M74,G:G)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P74" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>1266.5714285714287</v>
       </c>
       <c r="Q74" s="2">
-        <f>O74-L74</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -24684,12 +24678,12 @@
         <v>0</v>
       </c>
       <c r="G75" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K75" s="2"/>
       <c r="L75" s="2">
-        <f>COUNTIF(D:D,M75)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M75" s="7" t="s">
@@ -24699,15 +24693,15 @@
         <v>3714.2857142857142</v>
       </c>
       <c r="O75" s="2">
-        <f>SUMIF(D:D,M75,G:G)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P75" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>3714.2857142857142</v>
       </c>
       <c r="Q75" s="2">
-        <f>O75-L75</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -24731,12 +24725,12 @@
         <v>1</v>
       </c>
       <c r="G76" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>9018</v>
       </c>
       <c r="K76" s="2"/>
       <c r="L76" s="2">
-        <f>COUNTIF(D:D,M76)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="M76" s="7" t="s">
@@ -24746,15 +24740,15 @@
         <v>357.14285714285717</v>
       </c>
       <c r="O76" s="2">
-        <f>SUMIF(D:D,M76,G:G)</f>
+        <f t="shared" si="9"/>
         <v>134397</v>
       </c>
       <c r="P76" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>-134039.85714285713</v>
       </c>
       <c r="Q76" s="2">
-        <f>O76-L76</f>
+        <f t="shared" si="10"/>
         <v>134394</v>
       </c>
     </row>
@@ -24778,12 +24772,12 @@
         <v>1</v>
       </c>
       <c r="G77" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>5641</v>
       </c>
       <c r="K77" s="2"/>
       <c r="L77" s="2">
-        <f>COUNTIF(D:D,M77)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M77" s="7" t="s">
@@ -24793,15 +24787,15 @@
         <v>8142.8571428571431</v>
       </c>
       <c r="O77" s="2">
-        <f>SUMIF(D:D,M77,G:G)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P77" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>8142.8571428571431</v>
       </c>
       <c r="Q77" s="2">
-        <f>O77-L77</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -24825,12 +24819,12 @@
         <v>1</v>
       </c>
       <c r="G78" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>5789</v>
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="2">
-        <f>COUNTIF(D:D,M78)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="M78" s="7" t="s">
@@ -24840,15 +24834,15 @@
         <v>14285.714285714286</v>
       </c>
       <c r="O78" s="2">
-        <f>SUMIF(D:D,M78,G:G)</f>
+        <f t="shared" si="9"/>
         <v>11220</v>
       </c>
       <c r="P78" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>3065.7142857142862</v>
       </c>
       <c r="Q78" s="2">
-        <f>O78-L78</f>
+        <f t="shared" si="10"/>
         <v>11218</v>
       </c>
     </row>
@@ -24872,12 +24866,12 @@
         <v>1</v>
       </c>
       <c r="G79" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>3932</v>
       </c>
       <c r="K79" s="2"/>
       <c r="L79" s="2">
-        <f>COUNTIF(D:D,M79)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M79" s="7" t="s">
@@ -24887,15 +24881,15 @@
         <v>2142.8571428571427</v>
       </c>
       <c r="O79" s="2">
-        <f>SUMIF(D:D,M79,G:G)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P79" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>2142.8571428571427</v>
       </c>
       <c r="Q79" s="2">
-        <f>O79-L79</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -24919,12 +24913,12 @@
         <v>1</v>
       </c>
       <c r="G80" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>3989</v>
       </c>
       <c r="K80" s="2"/>
       <c r="L80" s="2">
-        <f>COUNTIF(D:D,M80)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="M80" s="7" t="s">
@@ -24934,15 +24928,15 @@
         <v>4114.2857142857147</v>
       </c>
       <c r="O80" s="2">
-        <f>SUMIF(D:D,M80,G:G)</f>
+        <f t="shared" si="9"/>
         <v>5409</v>
       </c>
       <c r="P80" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>-1294.7142857142853</v>
       </c>
       <c r="Q80" s="2">
-        <f>O80-L80</f>
+        <f t="shared" si="10"/>
         <v>5408</v>
       </c>
     </row>
@@ -24966,12 +24960,12 @@
         <v>1</v>
       </c>
       <c r="G81" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>4161</v>
       </c>
       <c r="K81" s="2"/>
       <c r="L81" s="2">
-        <f>COUNTIF(D:D,M81)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M81" s="7" t="s">
@@ -24981,15 +24975,15 @@
         <v>3571.4285714285716</v>
       </c>
       <c r="O81" s="2">
-        <f>SUMIF(D:D,M81,G:G)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P81" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>3571.4285714285716</v>
       </c>
       <c r="Q81" s="2">
-        <f>O81-L81</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -25013,12 +25007,12 @@
         <v>1</v>
       </c>
       <c r="G82" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>5355</v>
       </c>
       <c r="K82" s="2"/>
       <c r="L82" s="2">
-        <f>COUNTIF(D:D,M82)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="M82" s="7" t="s">
@@ -25028,15 +25022,15 @@
         <v>30714.285714285714</v>
       </c>
       <c r="O82" s="2">
-        <f>SUMIF(D:D,M82,G:G)</f>
+        <f t="shared" si="9"/>
         <v>27075</v>
       </c>
       <c r="P82" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>3639.2857142857138</v>
       </c>
       <c r="Q82" s="2">
-        <f>O82-L82</f>
+        <f t="shared" si="10"/>
         <v>27072</v>
       </c>
     </row>
@@ -25060,12 +25054,12 @@
         <v>0</v>
       </c>
       <c r="G83" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K83" s="2"/>
       <c r="L83" s="2">
-        <f>COUNTIF(D:D,M83)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M83" s="7" t="s">
@@ -25075,15 +25069,15 @@
         <v>1052.5714285714287</v>
       </c>
       <c r="O83" s="2">
-        <f>SUMIF(D:D,M83,G:G)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P83" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>1052.5714285714287</v>
       </c>
       <c r="Q83" s="2">
-        <f>O83-L83</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -25107,12 +25101,12 @@
         <v>0</v>
       </c>
       <c r="G84" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K84" s="2"/>
       <c r="L84" s="2">
-        <f>COUNTIF(D:D,M84)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M84" s="7" t="s">
@@ -25122,15 +25116,15 @@
         <v>485.71428571428572</v>
       </c>
       <c r="O84" s="2">
-        <f>SUMIF(D:D,M84,G:G)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P84" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>485.71428571428572</v>
       </c>
       <c r="Q84" s="2">
-        <f>O84-L84</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -25154,12 +25148,12 @@
         <v>0</v>
       </c>
       <c r="G85" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K85" s="2"/>
       <c r="L85" s="2">
-        <f>COUNTIF(D:D,M85)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M85" s="7" t="s">
@@ -25169,15 +25163,15 @@
         <v>13028.571428571429</v>
       </c>
       <c r="O85" s="2">
-        <f>SUMIF(D:D,M85,G:G)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P85" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>13028.571428571429</v>
       </c>
       <c r="Q85" s="2">
-        <f>O85-L85</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -25201,12 +25195,12 @@
         <v>1</v>
       </c>
       <c r="G86" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>4815</v>
       </c>
       <c r="K86" s="2"/>
       <c r="L86" s="2">
-        <f>COUNTIF(D:D,M86)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M86" s="7" t="s">
@@ -25216,15 +25210,15 @@
         <v>2142.8571428571427</v>
       </c>
       <c r="O86" s="2">
-        <f>SUMIF(D:D,M86,G:G)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P86" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>2142.8571428571427</v>
       </c>
       <c r="Q86" s="2">
-        <f>O86-L86</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -25248,12 +25242,12 @@
         <v>0</v>
       </c>
       <c r="G87" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K87" s="2"/>
       <c r="L87" s="2">
-        <f>COUNTIF(D:D,M87)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M87" s="7" t="s">
@@ -25263,15 +25257,15 @@
         <v>26714.285714285714</v>
       </c>
       <c r="O87" s="2">
-        <f>SUMIF(D:D,M87,G:G)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P87" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>26714.285714285714</v>
       </c>
       <c r="Q87" s="2">
-        <f>O87-L87</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -25295,12 +25289,12 @@
         <v>0</v>
       </c>
       <c r="G88" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K88" s="2"/>
       <c r="L88" s="2">
-        <f>COUNTIF(D:D,M88)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M88" s="7" t="s">
@@ -25310,15 +25304,15 @@
         <v>9028.5714285714294</v>
       </c>
       <c r="O88" s="2">
-        <f>SUMIF(D:D,M88,G:G)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P88" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>9028.5714285714294</v>
       </c>
       <c r="Q88" s="2">
-        <f>O88-L88</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -25342,12 +25336,12 @@
         <v>0</v>
       </c>
       <c r="G89" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K89" s="2"/>
       <c r="L89" s="2">
-        <f>COUNTIF(D:D,M89)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="M89" s="7" t="s">
@@ -25357,15 +25351,15 @@
         <v>25714.285714285714</v>
       </c>
       <c r="O89" s="2">
-        <f>SUMIF(D:D,M89,G:G)</f>
+        <f t="shared" si="9"/>
         <v>27012</v>
       </c>
       <c r="P89" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>-1297.7142857142862</v>
       </c>
       <c r="Q89" s="2">
-        <f>O89-L89</f>
+        <f t="shared" si="10"/>
         <v>27011</v>
       </c>
     </row>
@@ -25389,12 +25383,12 @@
         <v>0</v>
       </c>
       <c r="G90" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K90" s="2"/>
       <c r="L90" s="2">
-        <f>COUNTIF(D:D,M90)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M90" s="7" t="s">
@@ -25404,15 +25398,15 @@
         <v>3242.8571428571427</v>
       </c>
       <c r="O90" s="2">
-        <f>SUMIF(D:D,M90,G:G)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P90" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>3242.8571428571427</v>
       </c>
       <c r="Q90" s="2">
-        <f>O90-L90</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -25436,12 +25430,12 @@
         <v>0</v>
       </c>
       <c r="G91" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K91" s="2"/>
       <c r="L91" s="2">
-        <f>COUNTIF(D:D,M91)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M91" s="7" t="s">
@@ -25451,15 +25445,15 @@
         <v>2752.2857142857142</v>
       </c>
       <c r="O91" s="2">
-        <f>SUMIF(D:D,M91,G:G)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P91" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>2752.2857142857142</v>
       </c>
       <c r="Q91" s="2">
-        <f>O91-L91</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -25483,12 +25477,12 @@
         <v>0</v>
       </c>
       <c r="G92" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K92" s="2"/>
       <c r="L92" s="2">
-        <f>COUNTIF(D:D,M92)</f>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="M92" s="7" t="s">
@@ -25498,15 +25492,15 @@
         <v>338571.42857142858</v>
       </c>
       <c r="O92" s="2">
-        <f>SUMIF(D:D,M92,G:G)</f>
+        <f t="shared" si="9"/>
         <v>133329</v>
       </c>
       <c r="P92" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>205242.42857142858</v>
       </c>
       <c r="Q92" s="2">
-        <f>O92-L92</f>
+        <f t="shared" si="10"/>
         <v>133314</v>
       </c>
     </row>
@@ -25530,12 +25524,12 @@
         <v>0</v>
       </c>
       <c r="G93" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K93" s="2"/>
       <c r="L93" s="2">
-        <f>COUNTIF(D:D,M93)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="M93" s="7" t="s">
@@ -25545,15 +25539,15 @@
         <v>14000</v>
       </c>
       <c r="O93" s="2">
-        <f>SUMIF(D:D,M93,G:G)</f>
+        <f t="shared" si="9"/>
         <v>11866</v>
       </c>
       <c r="P93" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>2134</v>
       </c>
       <c r="Q93" s="2">
-        <f>O93-L93</f>
+        <f t="shared" si="10"/>
         <v>11863</v>
       </c>
     </row>
@@ -25577,12 +25571,12 @@
         <v>0</v>
       </c>
       <c r="G94" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K94" s="2"/>
       <c r="L94" s="2">
-        <f>COUNTIF(D:D,M94)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M94" s="7" t="s">
@@ -25592,15 +25586,15 @@
         <v>9642.8571428571431</v>
       </c>
       <c r="O94" s="2">
-        <f>SUMIF(D:D,M94,G:G)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P94" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>9642.8571428571431</v>
       </c>
       <c r="Q94" s="2">
-        <f>O94-L94</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -25624,12 +25618,12 @@
         <v>0</v>
       </c>
       <c r="G95" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K95" s="2"/>
       <c r="L95" s="2">
-        <f>COUNTIF(D:D,M95)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M95" s="7" t="s">
@@ -25639,15 +25633,15 @@
         <v>4662.8571428571431</v>
       </c>
       <c r="O95" s="2">
-        <f>SUMIF(D:D,M95,G:G)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P95" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>4662.8571428571431</v>
       </c>
       <c r="Q95" s="2">
-        <f>O95-L95</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -25671,12 +25665,12 @@
         <v>0</v>
       </c>
       <c r="G96" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K96" s="2"/>
       <c r="L96" s="2">
-        <f>COUNTIF(D:D,M96)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M96" s="7" t="s">
@@ -25686,15 +25680,15 @@
         <v>714.28571428571433</v>
       </c>
       <c r="O96" s="2">
-        <f>SUMIF(D:D,M96,G:G)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P96" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>714.28571428571433</v>
       </c>
       <c r="Q96" s="2">
-        <f>O96-L96</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -25718,12 +25712,12 @@
         <v>0</v>
       </c>
       <c r="G97" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K97" s="2"/>
       <c r="L97" s="2">
-        <f>COUNTIF(D:D,M97)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M97" s="7" t="s">
@@ -25733,15 +25727,15 @@
         <v>7187.1428571428569</v>
       </c>
       <c r="O97" s="2">
-        <f>SUMIF(D:D,M97,G:G)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P97" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>7187.1428571428569</v>
       </c>
       <c r="Q97" s="2">
-        <f>O97-L97</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -25765,12 +25759,12 @@
         <v>0</v>
       </c>
       <c r="G98" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K98" s="2"/>
       <c r="L98" s="2">
-        <f>COUNTIF(D:D,M98)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M98" s="7" t="s">
@@ -25780,15 +25774,15 @@
         <v>10714.285714285714</v>
       </c>
       <c r="O98" s="2">
-        <f>SUMIF(D:D,M98,G:G)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P98" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>10714.285714285714</v>
       </c>
       <c r="Q98" s="2">
-        <f>O98-L98</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -25812,12 +25806,12 @@
         <v>0</v>
       </c>
       <c r="G99" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K99" s="2"/>
       <c r="L99" s="2">
-        <f>COUNTIF(D:D,M99)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="M99" s="7" t="s">
@@ -25827,15 +25821,15 @@
         <v>45514.285714285717</v>
       </c>
       <c r="O99" s="2">
-        <f>SUMIF(D:D,M99,G:G)</f>
+        <f t="shared" si="9"/>
         <v>45427</v>
       </c>
       <c r="P99" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>87.285714285717404</v>
       </c>
       <c r="Q99" s="2">
-        <f>O99-L99</f>
+        <f t="shared" si="10"/>
         <v>45419</v>
       </c>
     </row>
@@ -25859,12 +25853,12 @@
         <v>1</v>
       </c>
       <c r="G100" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>4444</v>
       </c>
       <c r="K100" s="2"/>
       <c r="L100" s="2">
-        <f>COUNTIF(D:D,M100)</f>
+        <f t="shared" ref="L100:L131" si="13">COUNTIF(D:D,M100)</f>
         <v>0</v>
       </c>
       <c r="M100" s="7" t="s">
@@ -25874,15 +25868,15 @@
         <v>3608.5714285714284</v>
       </c>
       <c r="O100" s="2">
-        <f>SUMIF(D:D,M100,G:G)</f>
+        <f t="shared" ref="O100:O111" si="14">SUMIF(D:D,M100,G:G)</f>
         <v>0</v>
       </c>
       <c r="P100" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>3608.5714285714284</v>
       </c>
       <c r="Q100" s="2">
-        <f>O100-L100</f>
+        <f t="shared" ref="Q100:Q111" si="15">O100-L100</f>
         <v>0</v>
       </c>
     </row>
@@ -25906,12 +25900,12 @@
         <v>1</v>
       </c>
       <c r="G101" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>4145</v>
       </c>
       <c r="K101" s="2"/>
       <c r="L101" s="2">
-        <f>COUNTIF(D:D,M101)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M101" s="7" t="s">
@@ -25921,15 +25915,15 @@
         <v>3071.4285714285716</v>
       </c>
       <c r="O101" s="2">
-        <f>SUMIF(D:D,M101,G:G)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P101" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>3071.4285714285716</v>
       </c>
       <c r="Q101" s="2">
-        <f>O101-L101</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -25953,12 +25947,12 @@
         <v>0</v>
       </c>
       <c r="G102" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K102" s="2"/>
       <c r="L102" s="2">
-        <f>COUNTIF(D:D,M102)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M102" s="7" t="s">
@@ -25968,15 +25962,15 @@
         <v>1057.1428571428571</v>
       </c>
       <c r="O102" s="2">
-        <f>SUMIF(D:D,M102,G:G)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P102" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>1057.1428571428571</v>
       </c>
       <c r="Q102" s="2">
-        <f>O102-L102</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -26000,12 +25994,12 @@
         <v>0</v>
       </c>
       <c r="G103" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K103" s="2"/>
       <c r="L103" s="2">
-        <f>COUNTIF(D:D,M103)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M103" s="7" t="s">
@@ -26015,15 +26009,15 @@
         <v>642.85714285714289</v>
       </c>
       <c r="O103" s="2">
-        <f>SUMIF(D:D,M103,G:G)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P103" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>642.85714285714289</v>
       </c>
       <c r="Q103" s="2">
-        <f>O103-L103</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -26047,12 +26041,12 @@
         <v>1</v>
       </c>
       <c r="G104" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>23131</v>
       </c>
       <c r="K104" s="2"/>
       <c r="L104" s="2">
-        <f>COUNTIF(D:D,M104)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="M104" s="7" t="s">
@@ -26062,15 +26056,15 @@
         <v>24571.428571428572</v>
       </c>
       <c r="O104" s="2">
-        <f>SUMIF(D:D,M104,G:G)</f>
+        <f t="shared" si="14"/>
         <v>4862</v>
       </c>
       <c r="P104" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>19709.428571428572</v>
       </c>
       <c r="Q104" s="2">
-        <f>O104-L104</f>
+        <f t="shared" si="15"/>
         <v>4861</v>
       </c>
     </row>
@@ -26094,12 +26088,12 @@
         <v>1</v>
       </c>
       <c r="G105" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>4829</v>
       </c>
       <c r="K105" s="2"/>
       <c r="L105" s="2">
-        <f>COUNTIF(D:D,M105)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="M105" s="7" t="s">
@@ -26109,15 +26103,15 @@
         <v>1900</v>
       </c>
       <c r="O105" s="2">
-        <f>SUMIF(D:D,M105,G:G)</f>
+        <f t="shared" si="14"/>
         <v>9569</v>
       </c>
       <c r="P105" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>-7669</v>
       </c>
       <c r="Q105" s="2">
-        <f>O105-L105</f>
+        <f t="shared" si="15"/>
         <v>9567</v>
       </c>
     </row>
@@ -26141,12 +26135,12 @@
         <v>0</v>
       </c>
       <c r="G106" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K106" s="2"/>
       <c r="L106" s="2">
-        <f>COUNTIF(D:D,M106)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M106" s="7" t="s">
@@ -26156,15 +26150,15 @@
         <v>45000</v>
       </c>
       <c r="O106" s="2">
-        <f>SUMIF(D:D,M106,G:G)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P106" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>45000</v>
       </c>
       <c r="Q106" s="2">
-        <f>O106-L106</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -26188,12 +26182,12 @@
         <v>0</v>
       </c>
       <c r="G107" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K107" s="2"/>
       <c r="L107" s="2">
-        <f>COUNTIF(D:D,M107)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="M107" s="7" t="s">
@@ -26203,15 +26197,15 @@
         <v>10857.142857142857</v>
       </c>
       <c r="O107" s="2">
-        <f>SUMIF(D:D,M107,G:G)</f>
+        <f t="shared" si="14"/>
         <v>4303</v>
       </c>
       <c r="P107" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>6554.1428571428569</v>
       </c>
       <c r="Q107" s="2">
-        <f>O107-L107</f>
+        <f t="shared" si="15"/>
         <v>4302</v>
       </c>
     </row>
@@ -26235,12 +26229,12 @@
         <v>0</v>
       </c>
       <c r="G108" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K108" s="2"/>
       <c r="L108" s="2">
-        <f>COUNTIF(D:D,M108)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="M108" s="7" t="s">
@@ -26250,15 +26244,15 @@
         <v>8571.4285714285706</v>
       </c>
       <c r="O108" s="2">
-        <f>SUMIF(D:D,M108,G:G)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P108" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>8571.4285714285706</v>
       </c>
       <c r="Q108" s="2">
-        <f>O108-L108</f>
+        <f t="shared" si="15"/>
         <v>-1</v>
       </c>
     </row>
@@ -26282,12 +26276,12 @@
         <v>1</v>
       </c>
       <c r="G109" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>6613</v>
       </c>
       <c r="K109" s="2"/>
       <c r="L109" s="2">
-        <f>COUNTIF(D:D,M109)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M109" s="7" t="s">
@@ -26297,15 +26291,15 @@
         <v>2662.8571428571427</v>
       </c>
       <c r="O109" s="2">
-        <f>SUMIF(D:D,M109,G:G)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P109" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>2662.8571428571427</v>
       </c>
       <c r="Q109" s="2">
-        <f>O109-L109</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -26329,12 +26323,12 @@
         <v>0</v>
       </c>
       <c r="G110" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K110" s="2"/>
       <c r="L110" s="2">
-        <f>COUNTIF(D:D,M110)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M110" s="7" t="s">
@@ -26344,15 +26338,15 @@
         <v>6857.1428571428569</v>
       </c>
       <c r="O110" s="2">
-        <f>SUMIF(D:D,M110,G:G)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P110" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>6857.1428571428569</v>
       </c>
       <c r="Q110" s="2">
-        <f>O110-L110</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -26376,12 +26370,12 @@
         <v>1</v>
       </c>
       <c r="G111" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>6702</v>
       </c>
       <c r="K111" s="2"/>
       <c r="L111" s="2">
-        <f>COUNTIF(D:D,M111)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="M111" s="7" t="s">
@@ -26391,15 +26385,15 @@
         <v>40357.142857142855</v>
       </c>
       <c r="O111" s="2">
-        <f>SUMIF(D:D,M111,G:G)</f>
+        <f t="shared" si="14"/>
         <v>12410</v>
       </c>
       <c r="P111" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>27947.142857142855</v>
       </c>
       <c r="Q111" s="2">
-        <f>O111-L111</f>
+        <f t="shared" si="15"/>
         <v>12408</v>
       </c>
     </row>
@@ -26423,12 +26417,12 @@
         <v>1</v>
       </c>
       <c r="G112" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>6826</v>
       </c>
       <c r="K112" s="2"/>
       <c r="O112" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P112" s="12">
         <f>SUM(P3:P111)</f>
@@ -26459,10 +26453,13 @@
         <v>0</v>
       </c>
       <c r="G113" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K113" s="2"/>
+      <c r="O113" s="2" t="s">
+        <v>331</v>
+      </c>
       <c r="P113" s="12">
         <f>COUNTIF(P4:P111,"&lt;0")</f>
         <v>8</v>
@@ -26488,12 +26485,12 @@
         <v>1</v>
       </c>
       <c r="G114" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>6879</v>
       </c>
       <c r="K114" s="2"/>
-      <c r="O114" s="26" t="s">
-        <v>331</v>
+      <c r="O114" s="16" t="s">
+        <v>332</v>
       </c>
       <c r="P114" s="15">
         <f>P112+P113*99999+Q112*150000</f>
@@ -26520,7 +26517,7 @@
         <v>1</v>
       </c>
       <c r="G115" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>6935</v>
       </c>
       <c r="K115" s="2"/>
@@ -26545,7 +26542,7 @@
         <v>0</v>
       </c>
       <c r="G116" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K116" s="2"/>
@@ -26570,7 +26567,7 @@
         <v>0</v>
       </c>
       <c r="G117" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K117" s="2"/>
@@ -26595,7 +26592,7 @@
         <v>1</v>
       </c>
       <c r="G118" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>6990</v>
       </c>
       <c r="K118" s="2"/>
@@ -26620,7 +26617,7 @@
         <v>0</v>
       </c>
       <c r="G119" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K119" s="2"/>
@@ -26645,7 +26642,7 @@
         <v>1</v>
       </c>
       <c r="G120" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>7010</v>
       </c>
       <c r="K120" s="2"/>
@@ -26670,7 +26667,7 @@
         <v>1</v>
       </c>
       <c r="G121" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>7024</v>
       </c>
       <c r="K121" s="2"/>
@@ -26695,7 +26692,7 @@
         <v>1</v>
       </c>
       <c r="G122" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>7062</v>
       </c>
       <c r="K122" s="2"/>
@@ -26720,7 +26717,7 @@
         <v>1</v>
       </c>
       <c r="G123" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>7073</v>
       </c>
       <c r="K123" s="2"/>
@@ -26745,7 +26742,7 @@
         <v>0</v>
       </c>
       <c r="G124" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K124" s="2"/>
@@ -26770,7 +26767,7 @@
         <v>0</v>
       </c>
       <c r="G125" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K125" s="2"/>
@@ -26795,7 +26792,7 @@
         <v>0</v>
       </c>
       <c r="G126" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K126" s="2"/>
@@ -26820,7 +26817,7 @@
         <v>1</v>
       </c>
       <c r="G127" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>7130</v>
       </c>
       <c r="K127" s="2"/>
@@ -26845,7 +26842,7 @@
         <v>1</v>
       </c>
       <c r="G128" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>7137</v>
       </c>
       <c r="K128" s="2"/>
@@ -26870,7 +26867,7 @@
         <v>0</v>
       </c>
       <c r="G129" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K129" s="2"/>
@@ -26895,7 +26892,7 @@
         <v>0</v>
       </c>
       <c r="G130" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K130" s="2"/>
@@ -26920,7 +26917,7 @@
         <v>1</v>
       </c>
       <c r="G131" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>7139</v>
       </c>
       <c r="K131" s="2"/>
@@ -26945,7 +26942,7 @@
         <v>1</v>
       </c>
       <c r="G132" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>5574</v>
       </c>
       <c r="K132" s="2"/>
@@ -26970,7 +26967,7 @@
         <v>0</v>
       </c>
       <c r="G133" s="2">
-        <f t="shared" ref="G133:G196" si="4">F133*E133</f>
+        <f t="shared" ref="G133:G196" si="16">F133*E133</f>
         <v>0</v>
       </c>
       <c r="K133" s="2"/>
@@ -26995,7 +26992,7 @@
         <v>1</v>
       </c>
       <c r="G134" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>4793</v>
       </c>
       <c r="K134" s="2"/>
@@ -27020,7 +27017,7 @@
         <v>1</v>
       </c>
       <c r="G135" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>4898</v>
       </c>
       <c r="K135" s="2"/>
@@ -27045,7 +27042,7 @@
         <v>1</v>
       </c>
       <c r="G136" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>6394</v>
       </c>
       <c r="K136" s="2"/>
@@ -27070,7 +27067,7 @@
         <v>0</v>
       </c>
       <c r="G137" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K137" s="2"/>
@@ -27095,7 +27092,7 @@
         <v>0</v>
       </c>
       <c r="G138" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K138" s="2"/>
@@ -27120,7 +27117,7 @@
         <v>0</v>
       </c>
       <c r="G139" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K139" s="2"/>
@@ -27145,7 +27142,7 @@
         <v>0</v>
       </c>
       <c r="G140" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K140" s="2"/>
@@ -27170,7 +27167,7 @@
         <v>0</v>
       </c>
       <c r="G141" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K141" s="2"/>
@@ -27195,7 +27192,7 @@
         <v>1</v>
       </c>
       <c r="G142" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>5552</v>
       </c>
       <c r="K142" s="2"/>
@@ -27220,7 +27217,7 @@
         <v>1</v>
       </c>
       <c r="G143" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>5559</v>
       </c>
       <c r="K143" s="2"/>
@@ -27245,7 +27242,7 @@
         <v>0</v>
       </c>
       <c r="G144" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K144" s="2"/>
@@ -27270,7 +27267,7 @@
         <v>1</v>
       </c>
       <c r="G145" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>19991</v>
       </c>
       <c r="K145" s="2"/>
@@ -27295,7 +27292,7 @@
         <v>0</v>
       </c>
       <c r="G146" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K146" s="2"/>
@@ -27320,7 +27317,7 @@
         <v>0</v>
       </c>
       <c r="G147" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K147" s="2"/>
@@ -27345,7 +27342,7 @@
         <v>0</v>
       </c>
       <c r="G148" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K148" s="2"/>
@@ -27370,7 +27367,7 @@
         <v>0</v>
       </c>
       <c r="G149" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K149" s="2"/>
@@ -27395,7 +27392,7 @@
         <v>1</v>
       </c>
       <c r="G150" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>7282</v>
       </c>
       <c r="K150" s="2"/>
@@ -27420,7 +27417,7 @@
         <v>1</v>
       </c>
       <c r="G151" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>7630</v>
       </c>
       <c r="K151" s="2"/>
@@ -27445,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="G152" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K152" s="2"/>
@@ -27470,7 +27467,7 @@
         <v>1</v>
       </c>
       <c r="G153" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>22429</v>
       </c>
       <c r="K153" s="2"/>
@@ -27495,7 +27492,7 @@
         <v>1</v>
       </c>
       <c r="G154" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>42659</v>
       </c>
       <c r="K154" s="2"/>
@@ -27520,7 +27517,7 @@
         <v>1</v>
       </c>
       <c r="G155" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>69309</v>
       </c>
       <c r="K155" s="2"/>
@@ -27545,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="G156" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K156" s="2"/>
@@ -27570,7 +27567,7 @@
         <v>1</v>
       </c>
       <c r="G157" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>11220</v>
       </c>
       <c r="K157" s="2"/>
@@ -27595,7 +27592,7 @@
         <v>1</v>
       </c>
       <c r="G158" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>5409</v>
       </c>
       <c r="K158" s="2"/>
@@ -27620,7 +27617,7 @@
         <v>1</v>
       </c>
       <c r="G159" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>27075</v>
       </c>
       <c r="K159" s="2"/>
@@ -27645,7 +27642,7 @@
         <v>0</v>
       </c>
       <c r="G160" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K160" s="2"/>
@@ -27670,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="G161" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K161" s="2"/>
@@ -27695,7 +27692,7 @@
         <v>0</v>
       </c>
       <c r="G162" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K162" s="2"/>
@@ -27720,7 +27717,7 @@
         <v>1</v>
       </c>
       <c r="G163" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>4940</v>
       </c>
       <c r="K163" s="2"/>
@@ -27745,7 +27742,7 @@
         <v>1</v>
       </c>
       <c r="G164" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>27012</v>
       </c>
       <c r="K164" s="2"/>
@@ -27770,7 +27767,7 @@
         <v>1</v>
       </c>
       <c r="G165" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>4699</v>
       </c>
       <c r="K165" s="2"/>
@@ -27795,7 +27792,7 @@
         <v>1</v>
       </c>
       <c r="G166" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>4960</v>
       </c>
       <c r="K166" s="2"/>
@@ -27820,7 +27817,7 @@
         <v>1</v>
       </c>
       <c r="G167" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>5248</v>
       </c>
       <c r="K167" s="2"/>
@@ -27845,7 +27842,7 @@
         <v>1</v>
       </c>
       <c r="G168" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>7877</v>
       </c>
       <c r="K168" s="2"/>
@@ -27870,7 +27867,7 @@
         <v>1</v>
       </c>
       <c r="G169" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>9599</v>
       </c>
       <c r="K169" s="2"/>
@@ -27895,7 +27892,7 @@
         <v>1</v>
       </c>
       <c r="G170" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>9816</v>
       </c>
       <c r="K170" s="2"/>
@@ -27920,7 +27917,7 @@
         <v>1</v>
       </c>
       <c r="G171" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>10269</v>
       </c>
       <c r="K171" s="2"/>
@@ -27945,7 +27942,7 @@
         <v>1</v>
       </c>
       <c r="G172" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>10491</v>
       </c>
       <c r="K172" s="2"/>
@@ -27970,7 +27967,7 @@
         <v>1</v>
       </c>
       <c r="G173" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>10695</v>
       </c>
       <c r="K173" s="2"/>
@@ -27995,7 +27992,7 @@
         <v>1</v>
       </c>
       <c r="G174" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>10884</v>
       </c>
       <c r="K174" s="2"/>
@@ -28020,7 +28017,7 @@
         <v>1</v>
       </c>
       <c r="G175" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>10953</v>
       </c>
       <c r="K175" s="2"/>
@@ -28045,7 +28042,7 @@
         <v>1</v>
       </c>
       <c r="G176" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>11071</v>
       </c>
       <c r="K176" s="2"/>
@@ -28070,7 +28067,7 @@
         <v>1</v>
       </c>
       <c r="G177" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>11184</v>
       </c>
       <c r="K177" s="2"/>
@@ -28095,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="G178" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K178" s="2"/>
@@ -28120,7 +28117,7 @@
         <v>1</v>
       </c>
       <c r="G179" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>15583</v>
       </c>
       <c r="K179" s="2"/>
@@ -28145,7 +28142,7 @@
         <v>1</v>
       </c>
       <c r="G180" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>3943</v>
       </c>
       <c r="K180" s="2"/>
@@ -28170,7 +28167,7 @@
         <v>1</v>
       </c>
       <c r="G181" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>3959</v>
       </c>
       <c r="K181" s="2"/>
@@ -28195,7 +28192,7 @@
         <v>1</v>
       </c>
       <c r="G182" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>3964</v>
       </c>
       <c r="K182" s="2"/>
@@ -28220,7 +28217,7 @@
         <v>1</v>
       </c>
       <c r="G183" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>6558</v>
       </c>
       <c r="K183" s="2"/>
@@ -28245,7 +28242,7 @@
         <v>0</v>
       </c>
       <c r="G184" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K184" s="2"/>
@@ -28270,7 +28267,7 @@
         <v>1</v>
       </c>
       <c r="G185" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>8940</v>
       </c>
       <c r="K185" s="2"/>
@@ -28295,7 +28292,7 @@
         <v>1</v>
       </c>
       <c r="G186" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>8946</v>
       </c>
       <c r="K186" s="2"/>
@@ -28320,7 +28317,7 @@
         <v>1</v>
       </c>
       <c r="G187" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>4160</v>
       </c>
       <c r="K187" s="2"/>
@@ -28345,7 +28342,7 @@
         <v>1</v>
       </c>
       <c r="G188" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>4507</v>
       </c>
       <c r="K188" s="2"/>
@@ -28370,7 +28367,7 @@
         <v>1</v>
       </c>
       <c r="G189" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>5520</v>
       </c>
       <c r="K189" s="2"/>
@@ -28395,7 +28392,7 @@
         <v>1</v>
       </c>
       <c r="G190" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>5565</v>
       </c>
       <c r="K190" s="2"/>
@@ -28420,7 +28417,7 @@
         <v>1</v>
       </c>
       <c r="G191" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>5600</v>
       </c>
       <c r="K191" s="2"/>
@@ -28445,7 +28442,7 @@
         <v>1</v>
       </c>
       <c r="G192" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>5608</v>
       </c>
       <c r="K192" s="2"/>
@@ -28470,7 +28467,7 @@
         <v>1</v>
       </c>
       <c r="G193" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>6978</v>
       </c>
       <c r="K193" s="2"/>
@@ -28495,7 +28492,7 @@
         <v>1</v>
       </c>
       <c r="G194" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>7489</v>
       </c>
       <c r="K194" s="2"/>
@@ -28520,7 +28517,7 @@
         <v>1</v>
       </c>
       <c r="G195" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>4862</v>
       </c>
       <c r="K195" s="2"/>
@@ -28545,7 +28542,7 @@
         <v>1</v>
       </c>
       <c r="G196" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>4388</v>
       </c>
       <c r="K196" s="2"/>
@@ -28570,7 +28567,7 @@
         <v>1</v>
       </c>
       <c r="G197" s="2">
-        <f t="shared" ref="G197:G202" si="5">F197*E197</f>
+        <f t="shared" ref="G197:G202" si="17">F197*E197</f>
         <v>5181</v>
       </c>
       <c r="K197" s="2"/>
@@ -28595,7 +28592,7 @@
         <v>1</v>
       </c>
       <c r="G198" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>4303</v>
       </c>
       <c r="K198" s="2"/>
@@ -28620,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="G199" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K199" s="2"/>
@@ -28645,7 +28642,7 @@
         <v>1</v>
       </c>
       <c r="G200" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>4653</v>
       </c>
       <c r="K200" s="2"/>
@@ -28670,7 +28667,7 @@
         <v>1</v>
       </c>
       <c r="G201" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>7757</v>
       </c>
       <c r="K201" s="2"/>
@@ -28695,7 +28692,7 @@
         <v>0</v>
       </c>
       <c r="G202" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K202" s="2"/>

--- a/Miscellaneous/GALotSelection.xlsx
+++ b/Miscellaneous/GALotSelection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZhangHaihan\Desktop\Solution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A0E95A-2B53-4029-A310-6820C1B80752}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B5893E-6C6B-4EBE-9B1B-8BC933DA0E4F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AECEE74B-5940-472A-9D01-24D25183B911}"/>
   </bookViews>
@@ -740,10 +740,6 @@
     <t>Chip QUANTITY</t>
   </si>
   <si>
-    <t>A</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>q'</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1084,6 +1080,10 @@
   </si>
   <si>
     <t>sum(Dif)+a*count(dif&gt;0)+ b*count(xi-ci &lt;0)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECTION</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -21219,8 +21219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE847317-F3B7-47B1-A337-90E630C707F1}">
   <dimension ref="A1:Q202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E94" workbookViewId="0">
-      <selection activeCell="O105" sqref="O105"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -21245,7 +21245,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -21255,7 +21255,7 @@
       <c r="G1" s="25"/>
       <c r="K1" s="2"/>
       <c r="L1" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M1" s="18"/>
       <c r="N1" s="18"/>
@@ -21296,29 +21296,29 @@
         <v>4</v>
       </c>
       <c r="F3" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>222</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>223</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="N3" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="O3" s="5" t="s">
-        <v>327</v>
-      </c>
       <c r="P3" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -22055,7 +22055,7 @@
         <v>3</v>
       </c>
       <c r="M19" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N19" s="8">
         <v>2857.1428571428573</v>
@@ -24716,7 +24716,7 @@
         <v>12</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E76" s="3">
         <v>9018</v>
@@ -25858,7 +25858,7 @@
       </c>
       <c r="K100" s="2"/>
       <c r="L100" s="2">
-        <f t="shared" ref="L100:L131" si="13">COUNTIF(D:D,M100)</f>
+        <f t="shared" ref="L100:L111" si="13">COUNTIF(D:D,M100)</f>
         <v>0</v>
       </c>
       <c r="M100" s="7" t="s">
@@ -26070,7 +26070,7 @@
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>5</v>
@@ -26117,7 +26117,7 @@
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>5</v>
@@ -26164,7 +26164,7 @@
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>5</v>
@@ -26211,7 +26211,7 @@
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>5</v>
@@ -26258,7 +26258,7 @@
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>5</v>
@@ -26352,7 +26352,7 @@
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>5</v>
@@ -26399,7 +26399,7 @@
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>5</v>
@@ -26422,7 +26422,7 @@
       </c>
       <c r="K112" s="2"/>
       <c r="O112" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="P112" s="12">
         <f>SUM(P3:P111)</f>
@@ -26435,7 +26435,7 @@
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>5</v>
@@ -26458,7 +26458,7 @@
       </c>
       <c r="K113" s="2"/>
       <c r="O113" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P113" s="12">
         <f>COUNTIF(P4:P111,"&lt;0")</f>
@@ -26467,7 +26467,7 @@
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>5</v>
@@ -26490,7 +26490,7 @@
       </c>
       <c r="K114" s="2"/>
       <c r="O114" s="16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="P114" s="15">
         <f>P112+P113*99999+Q112*150000</f>
@@ -26499,7 +26499,7 @@
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>5</v>
@@ -26524,7 +26524,7 @@
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>5</v>
@@ -26549,7 +26549,7 @@
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>5</v>
@@ -26599,7 +26599,7 @@
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>5</v>
@@ -26624,7 +26624,7 @@
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>5</v>
@@ -26649,7 +26649,7 @@
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>5</v>
@@ -26674,7 +26674,7 @@
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>5</v>
@@ -26699,7 +26699,7 @@
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>5</v>
@@ -26724,7 +26724,7 @@
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>5</v>
@@ -26749,7 +26749,7 @@
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>5</v>
@@ -26774,7 +26774,7 @@
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>5</v>
@@ -26799,7 +26799,7 @@
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>5</v>
@@ -26824,7 +26824,7 @@
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>5</v>
@@ -26849,7 +26849,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>5</v>
@@ -26874,7 +26874,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>5</v>
@@ -26899,7 +26899,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>5</v>
@@ -26924,7 +26924,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>5</v>
@@ -26949,7 +26949,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>5</v>
@@ -26974,7 +26974,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>5</v>
@@ -26999,7 +26999,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>5</v>
@@ -27024,7 +27024,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>5</v>
@@ -27049,7 +27049,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>5</v>
@@ -27074,7 +27074,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>5</v>
@@ -27099,7 +27099,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>5</v>
@@ -27124,7 +27124,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>5</v>
@@ -27149,7 +27149,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>5</v>
@@ -27174,7 +27174,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>5</v>
@@ -27199,7 +27199,7 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>5</v>
@@ -27224,7 +27224,7 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>5</v>
@@ -27249,7 +27249,7 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>5</v>
@@ -27274,7 +27274,7 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>5</v>
@@ -27299,7 +27299,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>5</v>
@@ -27324,7 +27324,7 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>5</v>
@@ -27349,7 +27349,7 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>5</v>
@@ -27374,7 +27374,7 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>5</v>
@@ -27399,7 +27399,7 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>5</v>
@@ -27424,7 +27424,7 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>5</v>
@@ -27449,7 +27449,7 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>5</v>
@@ -27474,7 +27474,7 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>5</v>
@@ -27499,7 +27499,7 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>5</v>
@@ -27524,7 +27524,7 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>5</v>
@@ -27549,7 +27549,7 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>5</v>
@@ -27574,7 +27574,7 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>5</v>
@@ -27599,7 +27599,7 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>5</v>
@@ -27624,7 +27624,7 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>5</v>
@@ -27649,7 +27649,7 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>5</v>
@@ -27674,7 +27674,7 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>5</v>
@@ -27683,7 +27683,7 @@
         <v>6</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E162" s="3">
         <v>4562</v>
@@ -27699,7 +27699,7 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>5</v>
@@ -27708,7 +27708,7 @@
         <v>6</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E163" s="3">
         <v>4940</v>
@@ -27724,7 +27724,7 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>5</v>
@@ -27749,7 +27749,7 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>5</v>
@@ -27774,7 +27774,7 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>5</v>
@@ -27799,7 +27799,7 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>5</v>
@@ -27824,7 +27824,7 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>5</v>
@@ -27849,7 +27849,7 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>5</v>
@@ -27874,7 +27874,7 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>5</v>
@@ -27899,7 +27899,7 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>5</v>
@@ -27924,7 +27924,7 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>5</v>
@@ -27949,7 +27949,7 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>5</v>
@@ -27974,7 +27974,7 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>5</v>
@@ -27999,7 +27999,7 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>5</v>
@@ -28024,7 +28024,7 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>5</v>
@@ -28049,7 +28049,7 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>5</v>
@@ -28074,7 +28074,7 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>5</v>
@@ -28099,7 +28099,7 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>5</v>
@@ -28124,7 +28124,7 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>5</v>
@@ -28149,7 +28149,7 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>5</v>
@@ -28174,7 +28174,7 @@
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>5</v>
@@ -28199,7 +28199,7 @@
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>5</v>
@@ -28208,7 +28208,7 @@
         <v>12</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E183" s="3">
         <v>6558</v>
@@ -28224,7 +28224,7 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>5</v>
@@ -28233,7 +28233,7 @@
         <v>12</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E184" s="3">
         <v>8908</v>
@@ -28249,7 +28249,7 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>5</v>
@@ -28258,7 +28258,7 @@
         <v>12</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E185" s="3">
         <v>8940</v>
@@ -28274,7 +28274,7 @@
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>5</v>
@@ -28283,7 +28283,7 @@
         <v>12</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E186" s="3">
         <v>8946</v>
@@ -28299,7 +28299,7 @@
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>5</v>
@@ -28324,7 +28324,7 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>5</v>
@@ -28349,7 +28349,7 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>5</v>
@@ -28374,7 +28374,7 @@
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>5</v>
@@ -28399,7 +28399,7 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>5</v>
@@ -28424,7 +28424,7 @@
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>5</v>
@@ -28449,7 +28449,7 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>5</v>
@@ -28474,7 +28474,7 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>5</v>
@@ -28499,7 +28499,7 @@
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>5</v>
@@ -28524,7 +28524,7 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>5</v>
@@ -28549,7 +28549,7 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>5</v>
@@ -28574,7 +28574,7 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>5</v>
@@ -28599,7 +28599,7 @@
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>5</v>
@@ -28624,7 +28624,7 @@
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>5</v>
@@ -28649,7 +28649,7 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>5</v>

--- a/Miscellaneous/GALotSelection.xlsx
+++ b/Miscellaneous/GALotSelection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZhangHaihan\Desktop\Solution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B5893E-6C6B-4EBE-9B1B-8BC933DA0E4F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD719DD-700F-460E-BA56-465FEA6AAE3E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AECEE74B-5940-472A-9D01-24D25183B911}"/>
   </bookViews>
@@ -1083,7 +1083,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>SELECTION</t>
+    <t>SELECTED</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -21220,7 +21220,7 @@
   <dimension ref="A1:Q202"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
